--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D208A6-1D4F-4BB2-B38B-35E67E4E174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953FD7A-B1D4-4F12-A35E-39CE9F6D7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="132">
   <si>
     <t>投递日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,18 @@
       </rPr>
       <t>提前批</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISKETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓驭科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9HZ64G6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22153,7 +22165,7 @@
   <dimension ref="A1:AK443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:M28"/>
+      <selection activeCell="P35" sqref="P35:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22598,8 +22610,8 @@
         <v>45873</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="23" t="s">
         <v>123</v>
       </c>
@@ -22638,8 +22650,8 @@
       <c r="C12" s="4"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="20"/>
@@ -22762,8 +22774,8 @@
         <v>45873</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="23" t="s">
         <v>123</v>
       </c>
@@ -22802,8 +22814,8 @@
       <c r="C16" s="4"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="19"/>
@@ -22844,12 +22856,14 @@
         <v>45873</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="24"/>
+      <c r="F17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -22884,10 +22898,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -23492,16 +23506,22 @@
       <c r="AK32" s="4"/>
     </row>
     <row r="33" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21">
+        <v>45873</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="20"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -23532,14 +23552,14 @@
       <c r="AK33" s="4"/>
     </row>
     <row r="34" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953FD7A-B1D4-4F12-A35E-39CE9F6D7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793CCF34-9C0E-46B5-B90B-29994AE2159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
   <si>
     <t>投递日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,118 @@
     <t>9HZ64G6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>海笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSz7F2JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7JY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMMUJJQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZ3VJJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oKFLGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9F9NPPRG  小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元戎启行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂了后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合合信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初筛客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVVM9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新凯来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师兄的内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.15笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">虾皮 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +810,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -751,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
@@ -810,16 +929,22 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22164,15 +22289,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK443"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7.125" customWidth="1"/>
     <col min="14" max="14" width="13.625" customWidth="1"/>
@@ -22352,10 +22477,10 @@
         <v>119</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="19" t="s">
         <v>116</v>
       </c>
@@ -22396,8 +22521,8 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -22431,21 +22556,17 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="21">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="F7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="L7" s="19" t="s">
         <v>116</v>
       </c>
@@ -22482,12 +22603,10 @@
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -22516,14 +22635,14 @@
       <c r="AK8" s="4"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="21">
         <v>45868</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="20" t="s">
         <v>118</v>
       </c>
@@ -22532,10 +22651,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
@@ -22564,16 +22683,16 @@
       <c r="AK9" s="4"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -22602,22 +22721,24 @@
       <c r="AK10" s="4"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="21">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="23"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -22646,16 +22767,16 @@
       <c r="AK11" s="4"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -22689,15 +22810,15 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="21">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="25"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -22734,8 +22855,8 @@
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -22771,17 +22892,21 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="21">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="H15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -22816,10 +22941,10 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -22937,19 +23062,25 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="21">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="F19" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="25"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
@@ -22980,14 +23111,14 @@
       <c r="C20" s="4"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -23019,15 +23150,15 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="21">
-        <v>45873</v>
+        <v>45882</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -23064,8 +23195,8 @@
       <c r="E22" s="21"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -23101,15 +23232,17 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="21">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="23"/>
+      <c r="F23" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="20"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -23144,10 +23277,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -23178,24 +23311,30 @@
       <c r="AK24" s="4"/>
     </row>
     <row r="25" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="21">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="23" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="J25" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="20"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
@@ -23222,18 +23361,18 @@
       <c r="AK25" s="4"/>
     </row>
     <row r="26" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -23264,16 +23403,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="20"/>
+      <c r="D27" s="21">
+        <v>45880</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="23"/>
+      <c r="H27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="20"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -23306,12 +23445,12 @@
     <row r="28" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -23346,16 +23485,16 @@
         <v>42</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="20"/>
+      <c r="D29" s="21">
+        <v>45880</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="23"/>
+      <c r="H29" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="22"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -23388,12 +23527,12 @@
     <row r="30" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
@@ -23429,15 +23568,17 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="21">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="23"/>
+      <c r="F31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -23472,10 +23613,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
@@ -23506,10 +23647,10 @@
       <c r="AK32" s="4"/>
     </row>
     <row r="33" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="21">
         <v>45873</v>
       </c>
@@ -23518,12 +23659,14 @@
         <v>129</v>
       </c>
       <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="23"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -23552,16 +23695,16 @@
       <c r="AK33" s="4"/>
     </row>
     <row r="34" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -23590,16 +23733,20 @@
       <c r="AK34" s="4"/>
     </row>
     <row r="35" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="D35" s="21">
+        <v>45881</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="20"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -23632,12 +23779,12 @@
     <row r="36" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -23668,18 +23815,26 @@
       <c r="AK36" s="4"/>
     </row>
     <row r="37" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <v>4399</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="D37" s="21">
+        <v>45881</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="22"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -23710,14 +23865,14 @@
     <row r="38" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -23746,11 +23901,11 @@
       <c r="AK38" s="4"/>
     </row>
     <row r="39" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -23824,7 +23979,9 @@
       <c r="AK40" s="4"/>
     </row>
     <row r="41" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="20" t="s">
         <v>73</v>
@@ -23902,16 +24059,20 @@
       <c r="AK42" s="4"/>
     </row>
     <row r="43" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="20"/>
+      <c r="D43" s="21">
+        <v>45882</v>
+      </c>
+      <c r="E43" s="21"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="H43" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="25"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -23944,12 +24105,12 @@
     <row r="44" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -23980,8 +24141,10 @@
       <c r="AK44" s="4"/>
     </row>
     <row r="45" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="20" t="s">
         <v>73</v>
       </c>
@@ -24020,8 +24183,8 @@
       <c r="AK45" s="4"/>
     </row>
     <row r="46" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="19"/>
@@ -24058,8 +24221,10 @@
       <c r="AK46" s="4"/>
     </row>
     <row r="47" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="20" t="s">
         <v>73</v>
       </c>
@@ -24098,8 +24263,8 @@
       <c r="AK47" s="4"/>
     </row>
     <row r="48" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="19"/>
@@ -24136,8 +24301,10 @@
       <c r="AK48" s="4"/>
     </row>
     <row r="49" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="20" t="s">
         <v>73</v>
       </c>
@@ -24176,8 +24343,8 @@
       <c r="AK49" s="4"/>
     </row>
     <row r="50" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="19"/>
@@ -24214,8 +24381,10 @@
       <c r="AK50" s="4"/>
     </row>
     <row r="51" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="20" t="s">
         <v>73</v>
       </c>
@@ -24254,8 +24423,8 @@
       <c r="AK51" s="4"/>
     </row>
     <row r="52" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="19"/>
@@ -24292,16 +24461,20 @@
       <c r="AK52" s="4"/>
     </row>
     <row r="53" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="20"/>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="21">
+        <v>45882</v>
+      </c>
+      <c r="E53" s="21"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="H53" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="25"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -24332,14 +24505,14 @@
       <c r="AK53" s="4"/>
     </row>
     <row r="54" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
@@ -24370,8 +24543,10 @@
       <c r="AK54" s="4"/>
     </row>
     <row r="55" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="20" t="s">
         <v>73</v>
       </c>
@@ -24410,8 +24585,8 @@
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="19"/>
@@ -24448,8 +24623,10 @@
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="20" t="s">
         <v>73</v>
       </c>
@@ -24488,8 +24665,8 @@
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="19"/>
@@ -24526,8 +24703,10 @@
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="20" t="s">
         <v>73</v>
       </c>
@@ -24566,8 +24745,8 @@
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="19"/>
@@ -24604,8 +24783,10 @@
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="20" t="s">
         <v>73</v>
       </c>
@@ -24644,8 +24825,8 @@
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="19"/>
@@ -24682,16 +24863,22 @@
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="B63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="21">
+        <v>45881</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="20"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -24722,14 +24909,14 @@
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
@@ -24760,16 +24947,22 @@
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="B65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="21">
+        <v>45882</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="20"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -24800,14 +24993,14 @@
       <c r="AK65" s="4"/>
     </row>
     <row r="66" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -24838,14 +25031,16 @@
       <c r="AK66" s="4"/>
     </row>
     <row r="67" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
@@ -24878,12 +25073,12 @@
       <c r="AK67" s="4"/>
     </row>
     <row r="68" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -39180,7 +39375,14 @@
       <c r="AK443" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3901">
+  <mergeCells count="3900">
+    <mergeCell ref="D443:E443"/>
+    <mergeCell ref="F443:G443"/>
+    <mergeCell ref="H443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N439:O440"/>
+    <mergeCell ref="Z441:AA442"/>
     <mergeCell ref="N443:O443"/>
     <mergeCell ref="AB441:AC442"/>
     <mergeCell ref="AD441:AE442"/>
@@ -39204,6 +39406,21 @@
     <mergeCell ref="V443:W443"/>
     <mergeCell ref="X443:Y443"/>
     <mergeCell ref="Z443:AA443"/>
+    <mergeCell ref="AH439:AI440"/>
+    <mergeCell ref="AJ439:AK440"/>
+    <mergeCell ref="AH437:AI438"/>
+    <mergeCell ref="AJ437:AK438"/>
+    <mergeCell ref="N437:O438"/>
+    <mergeCell ref="P437:Q438"/>
+    <mergeCell ref="R437:S438"/>
+    <mergeCell ref="T437:U438"/>
+    <mergeCell ref="V437:W438"/>
+    <mergeCell ref="X437:Y438"/>
+    <mergeCell ref="AB435:AC436"/>
+    <mergeCell ref="AD435:AE436"/>
+    <mergeCell ref="AF435:AG436"/>
+    <mergeCell ref="AH435:AI436"/>
+    <mergeCell ref="AJ435:AK436"/>
     <mergeCell ref="D441:E442"/>
     <mergeCell ref="F441:G442"/>
     <mergeCell ref="H441:I442"/>
@@ -39220,39 +39437,9 @@
     <mergeCell ref="H439:I440"/>
     <mergeCell ref="J439:K440"/>
     <mergeCell ref="L439:M440"/>
-    <mergeCell ref="D443:E443"/>
-    <mergeCell ref="F443:G443"/>
-    <mergeCell ref="H443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N439:O440"/>
-    <mergeCell ref="Z441:AA442"/>
-    <mergeCell ref="N435:O436"/>
-    <mergeCell ref="Z437:AA438"/>
-    <mergeCell ref="AB437:AC438"/>
-    <mergeCell ref="AD437:AE438"/>
-    <mergeCell ref="AF437:AG438"/>
-    <mergeCell ref="AH437:AI438"/>
-    <mergeCell ref="AJ437:AK438"/>
-    <mergeCell ref="N437:O438"/>
-    <mergeCell ref="P437:Q438"/>
-    <mergeCell ref="R437:S438"/>
-    <mergeCell ref="T437:U438"/>
-    <mergeCell ref="V437:W438"/>
-    <mergeCell ref="X437:Y438"/>
-    <mergeCell ref="AB435:AC436"/>
-    <mergeCell ref="AD435:AE436"/>
-    <mergeCell ref="AF435:AG436"/>
-    <mergeCell ref="AH435:AI436"/>
-    <mergeCell ref="AJ435:AK436"/>
     <mergeCell ref="AB439:AC440"/>
     <mergeCell ref="AD439:AE440"/>
     <mergeCell ref="AF439:AG440"/>
-    <mergeCell ref="AH439:AI440"/>
-    <mergeCell ref="AJ439:AK440"/>
-    <mergeCell ref="AB433:AC434"/>
-    <mergeCell ref="AD433:AE434"/>
-    <mergeCell ref="AF433:AG434"/>
     <mergeCell ref="AH433:AI434"/>
     <mergeCell ref="AJ433:AK434"/>
     <mergeCell ref="N433:O434"/>
@@ -39266,6 +39453,17 @@
     <mergeCell ref="AF431:AG432"/>
     <mergeCell ref="AH431:AI432"/>
     <mergeCell ref="AJ431:AK432"/>
+    <mergeCell ref="P431:Q432"/>
+    <mergeCell ref="R431:S432"/>
+    <mergeCell ref="T431:U432"/>
+    <mergeCell ref="V431:W432"/>
+    <mergeCell ref="X431:Y432"/>
+    <mergeCell ref="Z431:AA432"/>
+    <mergeCell ref="N435:O436"/>
+    <mergeCell ref="Z437:AA438"/>
+    <mergeCell ref="AB437:AC438"/>
+    <mergeCell ref="AD437:AE438"/>
+    <mergeCell ref="AF437:AG438"/>
     <mergeCell ref="D437:E438"/>
     <mergeCell ref="F437:G438"/>
     <mergeCell ref="H437:I438"/>
@@ -39287,12 +39485,6 @@
     <mergeCell ref="H433:I434"/>
     <mergeCell ref="J433:K434"/>
     <mergeCell ref="L433:M434"/>
-    <mergeCell ref="P431:Q432"/>
-    <mergeCell ref="R431:S432"/>
-    <mergeCell ref="T431:U432"/>
-    <mergeCell ref="V431:W432"/>
-    <mergeCell ref="X431:Y432"/>
-    <mergeCell ref="Z431:AA432"/>
     <mergeCell ref="D431:E432"/>
     <mergeCell ref="F431:G432"/>
     <mergeCell ref="H431:I432"/>
@@ -39305,6 +39497,13 @@
     <mergeCell ref="AB429:AC430"/>
     <mergeCell ref="AD429:AE430"/>
     <mergeCell ref="AF429:AG430"/>
+    <mergeCell ref="AB433:AC434"/>
+    <mergeCell ref="AD433:AE434"/>
+    <mergeCell ref="AF433:AG434"/>
+    <mergeCell ref="T423:U424"/>
+    <mergeCell ref="V423:W424"/>
+    <mergeCell ref="X423:Y424"/>
+    <mergeCell ref="Z423:AA424"/>
     <mergeCell ref="AH429:AI430"/>
     <mergeCell ref="AJ429:AK430"/>
     <mergeCell ref="N429:O430"/>
@@ -39329,11 +39528,6 @@
     <mergeCell ref="T425:U426"/>
     <mergeCell ref="V425:W426"/>
     <mergeCell ref="X425:Y426"/>
-    <mergeCell ref="AB423:AC424"/>
-    <mergeCell ref="AD423:AE424"/>
-    <mergeCell ref="AF423:AG424"/>
-    <mergeCell ref="AH423:AI424"/>
-    <mergeCell ref="AJ423:AK424"/>
     <mergeCell ref="D429:E430"/>
     <mergeCell ref="F429:G430"/>
     <mergeCell ref="H429:I430"/>
@@ -39355,12 +39549,6 @@
     <mergeCell ref="H425:I426"/>
     <mergeCell ref="J425:K426"/>
     <mergeCell ref="L425:M426"/>
-    <mergeCell ref="P423:Q424"/>
-    <mergeCell ref="R423:S424"/>
-    <mergeCell ref="T423:U424"/>
-    <mergeCell ref="V423:W424"/>
-    <mergeCell ref="X423:Y424"/>
-    <mergeCell ref="Z423:AA424"/>
     <mergeCell ref="D423:E424"/>
     <mergeCell ref="F423:G424"/>
     <mergeCell ref="H423:I424"/>
@@ -39386,6 +39574,13 @@
     <mergeCell ref="AF419:AG420"/>
     <mergeCell ref="AH419:AI420"/>
     <mergeCell ref="AJ419:AK420"/>
+    <mergeCell ref="AB423:AC424"/>
+    <mergeCell ref="AD423:AE424"/>
+    <mergeCell ref="AF423:AG424"/>
+    <mergeCell ref="AH423:AI424"/>
+    <mergeCell ref="AJ423:AK424"/>
+    <mergeCell ref="P423:Q424"/>
+    <mergeCell ref="R423:S424"/>
     <mergeCell ref="AB417:AC418"/>
     <mergeCell ref="AD417:AE418"/>
     <mergeCell ref="AF417:AG418"/>
@@ -42730,6 +42925,10 @@
     <mergeCell ref="H41:I42"/>
     <mergeCell ref="J41:K42"/>
     <mergeCell ref="L41:M42"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:M38"/>
     <mergeCell ref="Z39:AA40"/>
     <mergeCell ref="AB39:AC40"/>
     <mergeCell ref="AD39:AE40"/>
@@ -42748,24 +42947,6 @@
     <mergeCell ref="H39:I40"/>
     <mergeCell ref="J39:K40"/>
     <mergeCell ref="L39:M40"/>
-    <mergeCell ref="Z37:AA38"/>
-    <mergeCell ref="AB37:AC38"/>
-    <mergeCell ref="AD37:AE38"/>
-    <mergeCell ref="AF37:AG38"/>
-    <mergeCell ref="AH37:AI38"/>
-    <mergeCell ref="AJ37:AK38"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="P37:Q38"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="T37:U38"/>
-    <mergeCell ref="V37:W38"/>
-    <mergeCell ref="X37:Y38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:M38"/>
     <mergeCell ref="Z35:AA36"/>
     <mergeCell ref="AB35:AC36"/>
     <mergeCell ref="AD35:AE36"/>
@@ -42780,10 +42961,24 @@
     <mergeCell ref="X35:Y36"/>
     <mergeCell ref="B35:C36"/>
     <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="F37:G38"/>
     <mergeCell ref="H35:I36"/>
     <mergeCell ref="J35:K36"/>
     <mergeCell ref="L35:M36"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="Z37:AA38"/>
+    <mergeCell ref="AB37:AC38"/>
+    <mergeCell ref="AD37:AE38"/>
+    <mergeCell ref="AF37:AG38"/>
+    <mergeCell ref="AH37:AI38"/>
+    <mergeCell ref="AJ37:AK38"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="P37:Q38"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="T37:U38"/>
+    <mergeCell ref="V37:W38"/>
+    <mergeCell ref="X37:Y38"/>
+    <mergeCell ref="B37:C38"/>
     <mergeCell ref="Z33:AA34"/>
     <mergeCell ref="AB33:AC34"/>
     <mergeCell ref="AD33:AE34"/>
@@ -43034,7 +43229,6 @@
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="Z5:AA6"/>
     <mergeCell ref="AB5:AC6"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D7D0E-C517-40D2-808D-1A8B119CC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E979C-57A4-4C82-9197-5D6D759A5B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="225">
   <si>
     <t>投递日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学而思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K14524P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,10 +729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深信服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,10 +762,6 @@
   </si>
   <si>
     <t>8.20笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉要无了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -818,6 +806,170 @@
   </si>
   <si>
     <t>8.28一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐明技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025/8/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL实业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwckjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记填了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJD9N5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSmcGDRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSkahKVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAGaDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴朴超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025/8/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS2UkygQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海能达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025/8/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DStkX2cK  小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投了邮箱等内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q135XA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS3fxgtP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IZV8GR 小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29测评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
@@ -1028,13 +1180,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1044,9 +1196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22397,8 +22546,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97:O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22492,7 +22641,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="3" t="s">
@@ -22573,7 +22722,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>45869</v>
       </c>
       <c r="E5" s="19"/>
@@ -22590,7 +22739,7 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="20"/>
@@ -22663,7 +22812,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>45874</v>
       </c>
       <c r="E7" s="19"/>
@@ -22676,13 +22825,13 @@
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="20"/>
+      <c r="L7" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20" t="s">
@@ -22721,8 +22870,8 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -22753,10 +22902,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>45868</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="19" t="s">
         <v>117</v>
       </c>
@@ -22799,8 +22948,8 @@
     <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -22839,7 +22988,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>45874</v>
       </c>
       <c r="E11" s="19"/>
@@ -22923,7 +23072,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>45874</v>
       </c>
       <c r="E13" s="19"/>
@@ -22932,7 +23081,7 @@
       <c r="H13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -22969,8 +23118,8 @@
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -23005,7 +23154,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>45874</v>
       </c>
       <c r="E15" s="19"/>
@@ -23016,7 +23165,7 @@
       <c r="H15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="25" t="s">
         <v>141</v>
       </c>
@@ -23057,8 +23206,8 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="19"/>
@@ -23093,7 +23242,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>45873</v>
       </c>
       <c r="E17" s="19"/>
@@ -23177,7 +23326,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>45875</v>
       </c>
       <c r="E19" s="19"/>
@@ -23196,7 +23345,7 @@
       <c r="L19" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
@@ -23233,8 +23382,8 @@
       <c r="I20" s="19"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -23265,12 +23414,12 @@
         <v>125</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>45883</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19" t="s">
@@ -23278,7 +23427,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="20"/>
@@ -23311,8 +23460,8 @@
     <row r="22" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
@@ -23351,10 +23500,10 @@
         <v>126</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="23">
+      <c r="D23" s="21">
         <v>45875</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="19" t="s">
         <v>135</v>
       </c>
@@ -23395,8 +23544,8 @@
     <row r="24" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -23435,10 +23584,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="23">
+      <c r="D25" s="21">
         <v>45875</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="19" t="s">
         <v>137</v>
       </c>
@@ -23451,9 +23600,7 @@
         <v>120</v>
       </c>
       <c r="K25" s="24"/>
-      <c r="L25" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -23483,8 +23630,8 @@
     <row r="26" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="24"/>
@@ -23523,10 +23670,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="23">
+      <c r="D27" s="21">
         <v>45880</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="19" t="s">
@@ -23534,15 +23681,17 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K27" s="25"/>
-      <c r="L27" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="L27" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" s="24"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -23569,18 +23718,18 @@
     <row r="28" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -23609,10 +23758,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="23">
+      <c r="D29" s="21">
         <v>45880</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="25" t="s">
@@ -23620,13 +23769,13 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -23653,8 +23802,8 @@
     <row r="30" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="25"/>
@@ -23663,8 +23812,8 @@
       <c r="K30" s="25"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
@@ -23693,10 +23842,10 @@
         <v>127</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="23">
+      <c r="D31" s="21">
         <v>45874</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="19" t="s">
         <v>132</v>
       </c>
@@ -23706,7 +23855,7 @@
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="20"/>
@@ -23739,8 +23888,8 @@
     <row r="32" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="24"/>
@@ -23779,10 +23928,10 @@
         <v>129</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="23">
+      <c r="D33" s="21">
         <v>45873</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="19" t="s">
         <v>128</v>
       </c>
@@ -23825,8 +23974,8 @@
     <row r="34" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="24"/>
@@ -23865,10 +24014,10 @@
         <v>138</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <v>45881</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19" t="s">
@@ -23907,8 +24056,8 @@
     <row r="36" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
@@ -23947,10 +24096,10 @@
         <v>4399</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <v>45881</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="19" t="s">
         <v>146</v>
       </c>
@@ -23964,7 +24113,7 @@
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="24" t="s">
@@ -23997,8 +24146,8 @@
     <row r="38" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
@@ -24037,12 +24186,12 @@
         <v>139</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="D39" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="21"/>
       <c r="F39" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="19" t="s">
@@ -24081,8 +24230,8 @@
     <row r="40" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
@@ -24117,24 +24266,24 @@
       <c r="AK40" s="3"/>
     </row>
     <row r="41" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K41" s="19"/>
+      <c r="J41" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" s="24"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -24163,16 +24312,16 @@
       <c r="AK41" s="3"/>
     </row>
     <row r="42" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -24205,12 +24354,12 @@
         <v>105</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="23">
+      <c r="D43" s="21">
         <v>45883</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="19" t="s">
@@ -24251,8 +24400,8 @@
     <row r="44" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -24288,17 +24437,17 @@
     </row>
     <row r="45" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="29"/>
+      <c r="D45" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="18"/>
       <c r="H45" s="19" t="s">
         <v>7</v>
       </c>
@@ -24335,10 +24484,10 @@
     <row r="46" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
@@ -24372,19 +24521,21 @@
     </row>
     <row r="47" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="19"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -24417,12 +24568,12 @@
     <row r="48" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -24454,17 +24605,17 @@
     </row>
     <row r="49" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="29"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="19" t="s">
         <v>7</v>
       </c>
@@ -24501,10 +24652,10 @@
     <row r="50" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
@@ -24541,12 +24692,12 @@
         <v>18</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="23"/>
+      <c r="D51" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="21"/>
       <c r="F51" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
@@ -24585,8 +24736,8 @@
     <row r="52" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -24621,16 +24772,16 @@
       <c r="AK52" s="3"/>
     </row>
     <row r="53" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="23">
+      <c r="C53" s="24"/>
+      <c r="D53" s="21">
         <v>45883</v>
       </c>
-      <c r="E53" s="23"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="19" t="s">
@@ -24638,15 +24789,17 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K53" s="25"/>
-      <c r="L53" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="L53" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" s="24"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -24671,20 +24824,20 @@
       <c r="AK53" s="3"/>
     </row>
     <row r="54" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -24713,12 +24866,12 @@
         <v>104</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E55" s="23"/>
+      <c r="D55" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="21"/>
       <c r="F55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="19" t="s">
@@ -24757,8 +24910,8 @@
     <row r="56" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="19"/>
@@ -24794,19 +24947,21 @@
     </row>
     <row r="57" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I57" s="21"/>
+      <c r="D57" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="19"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
@@ -24839,12 +24994,12 @@
     <row r="58" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
@@ -24876,17 +25031,17 @@
     </row>
     <row r="59" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G59" s="29"/>
+      <c r="D59" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="18"/>
       <c r="H59" s="19" t="s">
         <v>7</v>
       </c>
@@ -24923,10 +25078,10 @@
     <row r="60" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
@@ -24960,15 +25115,15 @@
     </row>
     <row r="61" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="23"/>
+      <c r="D61" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="21"/>
       <c r="F61" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="19" t="s">
@@ -25007,8 +25162,8 @@
     <row r="62" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="19"/>
@@ -25047,10 +25202,10 @@
         <v>142</v>
       </c>
       <c r="C63" s="24"/>
-      <c r="D63" s="23">
+      <c r="D63" s="21">
         <v>45881</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="19" t="s">
         <v>145</v>
       </c>
@@ -25059,8 +25214,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="24"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="J63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K63" s="24"/>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
@@ -25091,14 +25248,14 @@
     <row r="64" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
@@ -25131,10 +25288,10 @@
         <v>103</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="23">
+      <c r="D65" s="21">
         <v>45882</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="3" t="s">
         <v>148</v>
       </c>
@@ -25175,8 +25332,8 @@
     <row r="66" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="19"/>
@@ -25215,13 +25372,15 @@
         <v>147</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="19"/>
+      <c r="D67" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="G67" s="19"/>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="22" t="s">
         <v>122</v>
       </c>
       <c r="I67" s="22"/>
@@ -25257,8 +25416,8 @@
     <row r="68" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="22"/>
@@ -25293,20 +25452,22 @@
       <c r="AK68" s="3"/>
     </row>
     <row r="69" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="22"/>
+      <c r="B69" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="28"/>
+      <c r="H69" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="19"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -25337,14 +25498,14 @@
       <c r="AK69" s="3"/>
     </row>
     <row r="70" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
@@ -25380,15 +25541,15 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="21" t="s">
+      <c r="H71" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I71" s="21"/>
+      <c r="I71" s="22"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
@@ -25425,8 +25586,8 @@
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
@@ -25458,15 +25619,15 @@
     </row>
     <row r="73" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="23"/>
+      <c r="D73" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="21"/>
       <c r="F73" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G73" s="19"/>
       <c r="H73" s="19" t="s">
@@ -25505,8 +25666,8 @@
     <row r="74" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
@@ -25546,15 +25707,15 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="19" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I75" s="21"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
@@ -25591,8 +25752,8 @@
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -25624,19 +25785,21 @@
     </row>
     <row r="77" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I77" s="21"/>
+      <c r="D77" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="19"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
@@ -25669,12 +25832,12 @@
     <row r="78" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
@@ -25709,14 +25872,16 @@
         <v>14</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="19"/>
+      <c r="D79" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" s="21"/>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
+      <c r="H79" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="19"/>
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
@@ -25749,12 +25914,12 @@
     <row r="80" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
@@ -25785,16 +25950,16 @@
       <c r="AK80" s="3"/>
     </row>
     <row r="81" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="23"/>
+      <c r="B81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="21"/>
       <c r="F81" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="19" t="s">
@@ -25831,10 +25996,10 @@
       <c r="AK81" s="3"/>
     </row>
     <row r="82" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
@@ -25869,16 +26034,22 @@
       <c r="AK82" s="3"/>
     </row>
     <row r="83" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
+      <c r="B83" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="19"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
@@ -25909,14 +26080,14 @@
       <c r="AK83" s="3"/>
     </row>
     <row r="84" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
@@ -25947,16 +26118,22 @@
       <c r="AK84" s="3"/>
     </row>
     <row r="85" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
+      <c r="B85" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="19"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
@@ -25987,14 +26164,14 @@
       <c r="AK85" s="3"/>
     </row>
     <row r="86" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
@@ -26025,16 +26202,22 @@
       <c r="AK86" s="3"/>
     </row>
     <row r="87" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="13"/>
+      <c r="D87" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="G87" s="13"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
+      <c r="H87" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="19"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -26067,12 +26250,12 @@
     <row r="88" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -26103,16 +26286,22 @@
       <c r="AK88" s="3"/>
     </row>
     <row r="89" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="13"/>
+      <c r="D89" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="G89" s="13"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
+      <c r="H89" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="19"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -26145,12 +26334,12 @@
     <row r="90" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -26181,16 +26370,22 @@
       <c r="AK90" s="3"/>
     </row>
     <row r="91" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="13"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="G91" s="13"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
+      <c r="H91" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" s="22"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -26223,12 +26418,12 @@
     <row r="92" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -26259,20 +26454,30 @@
       <c r="AK92" s="3"/>
     </row>
     <row r="93" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="F93" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I93" s="25"/>
+      <c r="J93" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="M93" s="19"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -26301,16 +26506,16 @@
     <row r="94" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -26337,16 +26542,22 @@
       <c r="AK94" s="3"/>
     </row>
     <row r="95" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="13"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="G95" s="13"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="H95" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" s="22"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -26379,12 +26590,12 @@
     <row r="96" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -26415,16 +26626,22 @@
       <c r="AK96" s="3"/>
     </row>
     <row r="97" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="13"/>
+      <c r="D97" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="G97" s="13"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="H97" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="19"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -26457,12 +26674,12 @@
     <row r="98" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -26493,16 +26710,22 @@
       <c r="AK98" s="3"/>
     </row>
     <row r="99" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="13"/>
+      <c r="D99" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="G99" s="13"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="H99" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="19"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -26535,12 +26758,12 @@
     <row r="100" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -26571,14 +26794,20 @@
       <c r="AK100" s="3"/>
     </row>
     <row r="101" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="B101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="21"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
+      <c r="H101" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="22"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -26609,14 +26838,14 @@
       <c r="AK101" s="3"/>
     </row>
     <row r="102" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -26647,14 +26876,18 @@
       <c r="AK102" s="3"/>
     </row>
     <row r="103" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="H103" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I103" s="22"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -26691,8 +26924,8 @@
       <c r="E104" s="3"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -26723,14 +26956,20 @@
       <c r="AK104" s="3"/>
     </row>
     <row r="105" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="19"/>
+      <c r="B105" s="19" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
+      <c r="D105" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="21"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
+      <c r="H105" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="19"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -26763,12 +27002,12 @@
     <row r="106" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -26799,7 +27038,9 @@
       <c r="AK106" s="3"/>
     </row>
     <row r="107" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="19" t="s">
         <v>73</v>
@@ -26807,8 +27048,10 @@
       <c r="E107" s="19"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="H107" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="22"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -26845,8 +27088,8 @@
       <c r="E108" s="19"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -26877,16 +27120,22 @@
       <c r="AK108" s="3"/>
     </row>
     <row r="109" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="13"/>
+      <c r="D109" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="F109" s="13" t="s">
+        <v>219</v>
+      </c>
       <c r="G109" s="13"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="H109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="19"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -26919,12 +27168,12 @@
     <row r="110" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -26955,16 +27204,22 @@
       <c r="AK110" s="3"/>
     </row>
     <row r="111" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="13"/>
+      <c r="D111" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="21"/>
+      <c r="F111" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="G111" s="13"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="H111" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="19"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -26997,12 +27252,12 @@
     <row r="112" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -27033,16 +27288,22 @@
       <c r="AK112" s="3"/>
     </row>
     <row r="113" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="13"/>
+      <c r="D113" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E113" s="21"/>
+      <c r="F113" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="G113" s="13"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="H113" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="19"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -27075,12 +27336,12 @@
     <row r="114" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -27111,16 +27372,22 @@
       <c r="AK114" s="3"/>
     </row>
     <row r="115" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="G115" s="13"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="H115" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I115" s="25"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -27153,12 +27420,12 @@
     <row r="116" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -40225,7 +40492,6 @@
     <mergeCell ref="T69:U70"/>
     <mergeCell ref="V69:W70"/>
     <mergeCell ref="X69:Y70"/>
-    <mergeCell ref="B69:C70"/>
     <mergeCell ref="F75:G76"/>
     <mergeCell ref="H75:I76"/>
     <mergeCell ref="J75:K76"/>
@@ -40490,12 +40756,13 @@
     <mergeCell ref="T101:U102"/>
     <mergeCell ref="V101:W102"/>
     <mergeCell ref="X101:Y102"/>
-    <mergeCell ref="B101:C102"/>
+    <mergeCell ref="B69:C70"/>
     <mergeCell ref="D101:E102"/>
     <mergeCell ref="F101:G102"/>
     <mergeCell ref="H101:I102"/>
     <mergeCell ref="J101:K102"/>
     <mergeCell ref="L101:M102"/>
+    <mergeCell ref="B101:C102"/>
     <mergeCell ref="Z103:AA104"/>
     <mergeCell ref="AB103:AC104"/>
     <mergeCell ref="AD103:AE104"/>
@@ -43351,15 +43618,6 @@
     <mergeCell ref="R427:S428"/>
     <mergeCell ref="T427:U428"/>
     <mergeCell ref="V427:W428"/>
-    <mergeCell ref="D431:E432"/>
-    <mergeCell ref="F431:G432"/>
-    <mergeCell ref="H431:I432"/>
-    <mergeCell ref="J431:K432"/>
-    <mergeCell ref="L431:M432"/>
-    <mergeCell ref="N431:O432"/>
-    <mergeCell ref="Z433:AA434"/>
-    <mergeCell ref="N427:O428"/>
-    <mergeCell ref="Z429:AA430"/>
     <mergeCell ref="AB429:AC430"/>
     <mergeCell ref="AD429:AE430"/>
     <mergeCell ref="AF429:AG430"/>
@@ -43378,6 +43636,27 @@
     <mergeCell ref="H427:I428"/>
     <mergeCell ref="J427:K428"/>
     <mergeCell ref="L427:M428"/>
+    <mergeCell ref="D433:E434"/>
+    <mergeCell ref="F433:G434"/>
+    <mergeCell ref="H433:I434"/>
+    <mergeCell ref="J433:K434"/>
+    <mergeCell ref="L433:M434"/>
+    <mergeCell ref="R437:S438"/>
+    <mergeCell ref="T437:U438"/>
+    <mergeCell ref="V437:W438"/>
+    <mergeCell ref="X437:Y438"/>
+    <mergeCell ref="D431:E432"/>
+    <mergeCell ref="F431:G432"/>
+    <mergeCell ref="H431:I432"/>
+    <mergeCell ref="J431:K432"/>
+    <mergeCell ref="L431:M432"/>
+    <mergeCell ref="N431:O432"/>
+    <mergeCell ref="Z433:AA434"/>
+    <mergeCell ref="N427:O428"/>
+    <mergeCell ref="Z429:AA430"/>
+    <mergeCell ref="AJ437:AK438"/>
+    <mergeCell ref="N437:O438"/>
+    <mergeCell ref="P437:Q438"/>
     <mergeCell ref="D437:E438"/>
     <mergeCell ref="F437:G438"/>
     <mergeCell ref="H437:I438"/>
@@ -43394,13 +43673,6 @@
     <mergeCell ref="H435:I436"/>
     <mergeCell ref="J435:K436"/>
     <mergeCell ref="L435:M436"/>
-    <mergeCell ref="D433:E434"/>
-    <mergeCell ref="F433:G434"/>
-    <mergeCell ref="H433:I434"/>
-    <mergeCell ref="J433:K434"/>
-    <mergeCell ref="L433:M434"/>
-    <mergeCell ref="AD439:AE440"/>
-    <mergeCell ref="AF439:AG440"/>
     <mergeCell ref="AH433:AI434"/>
     <mergeCell ref="AJ433:AK434"/>
     <mergeCell ref="N433:O434"/>
@@ -43420,21 +43692,6 @@
     <mergeCell ref="V431:W432"/>
     <mergeCell ref="X431:Y432"/>
     <mergeCell ref="Z431:AA432"/>
-    <mergeCell ref="N435:O436"/>
-    <mergeCell ref="Z437:AA438"/>
-    <mergeCell ref="AB437:AC438"/>
-    <mergeCell ref="AD437:AE438"/>
-    <mergeCell ref="AF437:AG438"/>
-    <mergeCell ref="AH439:AI440"/>
-    <mergeCell ref="AJ439:AK440"/>
-    <mergeCell ref="AH437:AI438"/>
-    <mergeCell ref="AJ437:AK438"/>
-    <mergeCell ref="N437:O438"/>
-    <mergeCell ref="P437:Q438"/>
-    <mergeCell ref="R437:S438"/>
-    <mergeCell ref="T437:U438"/>
-    <mergeCell ref="V437:W438"/>
-    <mergeCell ref="X437:Y438"/>
     <mergeCell ref="AB435:AC436"/>
     <mergeCell ref="AD435:AE436"/>
     <mergeCell ref="AF435:AG436"/>
@@ -43457,6 +43714,16 @@
     <mergeCell ref="J439:K440"/>
     <mergeCell ref="L439:M440"/>
     <mergeCell ref="AB439:AC440"/>
+    <mergeCell ref="AD439:AE440"/>
+    <mergeCell ref="AF439:AG440"/>
+    <mergeCell ref="N435:O436"/>
+    <mergeCell ref="Z437:AA438"/>
+    <mergeCell ref="AB437:AC438"/>
+    <mergeCell ref="AD437:AE438"/>
+    <mergeCell ref="AF437:AG438"/>
+    <mergeCell ref="AH439:AI440"/>
+    <mergeCell ref="AJ439:AK440"/>
+    <mergeCell ref="AH437:AI438"/>
     <mergeCell ref="B47:C48"/>
     <mergeCell ref="B77:C78"/>
     <mergeCell ref="D443:E443"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD618AC-823D-48EA-A9D5-9D07AEE92938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E9845-3FE7-4906-AF4A-A5E06BD8DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="268">
   <si>
     <t>投递日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1116,6 +1116,34 @@
     <t xml:space="preserve">进度  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>招银云创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1323,6 +1351,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,9 +1364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -22684,8 +22712,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63:Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157:M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22786,22 +22814,22 @@
         <v>73</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="9"/>
@@ -22826,20 +22854,20 @@
       <c r="E4" s="18"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="9"/>
@@ -22862,7 +22890,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>45869</v>
       </c>
       <c r="E5" s="19"/>
@@ -22874,26 +22902,26 @@
         <v>118</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="19" t="s">
         <v>162</v>
       </c>
       <c r="M5" s="19"/>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="23" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -22920,18 +22948,18 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -22954,7 +22982,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>45874</v>
       </c>
       <c r="E7" s="19"/>
@@ -22962,32 +22990,32 @@
         <v>140</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="19" t="s">
         <v>162</v>
       </c>
       <c r="M7" s="19"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -23008,24 +23036,24 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -23040,14 +23068,14 @@
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20">
+      <c r="C9" s="23"/>
+      <c r="D9" s="21">
         <v>45868</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="19" t="s">
         <v>117</v>
       </c>
@@ -23056,10 +23084,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -23088,16 +23116,16 @@
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -23126,24 +23154,24 @@
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20">
+      <c r="C11" s="23"/>
+      <c r="D11" s="21">
         <v>45874</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -23172,16 +23200,16 @@
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -23214,28 +23242,28 @@
         <v>37</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>45874</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -23258,22 +23286,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -23296,7 +23324,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="20">
+      <c r="D15" s="21">
         <v>45874</v>
       </c>
       <c r="E15" s="19"/>
@@ -23308,22 +23336,22 @@
         <v>131</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -23350,18 +23378,18 @@
       <c r="G16" s="19"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -23384,7 +23412,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="20">
+      <c r="D17" s="21">
         <v>45873</v>
       </c>
       <c r="E17" s="19"/>
@@ -23396,18 +23424,18 @@
         <v>7</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -23434,18 +23462,18 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -23468,7 +23496,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="20">
+      <c r="D19" s="21">
         <v>45875</v>
       </c>
       <c r="E19" s="19"/>
@@ -23480,22 +23508,22 @@
         <v>7</v>
       </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="25" t="s">
         <v>143</v>
       </c>
       <c r="M19" s="26"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -23522,18 +23550,18 @@
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -23556,10 +23584,10 @@
         <v>125</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="20">
+      <c r="D21" s="21">
         <v>45883</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="19" t="s">
         <v>151</v>
       </c>
@@ -23568,20 +23596,20 @@
         <v>7</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -23602,24 +23630,24 @@
     <row r="22" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -23642,10 +23670,10 @@
         <v>126</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="20">
+      <c r="D23" s="21">
         <v>45875</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="19" t="s">
         <v>135</v>
       </c>
@@ -23654,18 +23682,18 @@
         <v>7</v>
       </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -23686,24 +23714,24 @@
     <row r="24" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -23722,36 +23750,36 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="20">
+      <c r="C25" s="23"/>
+      <c r="D25" s="21">
         <v>45875</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="19" t="s">
         <v>137</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -23770,26 +23798,26 @@
       <c r="AK25" s="3"/>
     </row>
     <row r="26" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -23812,38 +23840,38 @@
         <v>10</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="20">
+      <c r="D27" s="21">
         <v>45880</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22" t="s">
+      <c r="O27" s="23"/>
+      <c r="P27" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Q27" s="22"/>
+      <c r="Q27" s="23"/>
       <c r="R27" s="25" t="s">
         <v>246</v>
       </c>
       <c r="S27" s="26"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -23864,24 +23892,24 @@
     <row r="28" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -23904,34 +23932,34 @@
         <v>42</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="20">
+      <c r="D29" s="21">
         <v>45880</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="25" t="s">
         <v>249</v>
       </c>
       <c r="O29" s="26"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -23952,24 +23980,24 @@
     <row r="30" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -23988,36 +24016,36 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20">
+      <c r="C31" s="23"/>
+      <c r="D31" s="21">
         <v>45874</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="19" t="s">
         <v>132</v>
       </c>
       <c r="G31" s="19"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -24036,26 +24064,26 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -24074,36 +24102,36 @@
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="20">
+      <c r="C33" s="23"/>
+      <c r="D33" s="21">
         <v>45873</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="19" t="s">
         <v>128</v>
       </c>
       <c r="G33" s="19"/>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22" t="s">
+      <c r="I33" s="23"/>
+      <c r="J33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -24122,26 +24150,26 @@
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -24164,28 +24192,28 @@
         <v>138</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="20">
+      <c r="D35" s="21">
         <v>45881</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -24206,24 +24234,24 @@
     <row r="36" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -24242,14 +24270,14 @@
       <c r="AK36" s="3"/>
     </row>
     <row r="37" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22">
+      <c r="B37" s="23">
         <v>4399</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="20">
+      <c r="C37" s="23"/>
+      <c r="D37" s="21">
         <v>45881</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="19" t="s">
         <v>146</v>
       </c>
@@ -24258,24 +24286,24 @@
         <v>7</v>
       </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="19" t="s">
         <v>162</v>
       </c>
       <c r="M37" s="19"/>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -24294,26 +24322,26 @@
       <c r="AK37" s="3"/>
     </row>
     <row r="38" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -24336,10 +24364,10 @@
         <v>139</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="19" t="s">
         <v>163</v>
       </c>
@@ -24348,18 +24376,18 @@
         <v>7</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -24380,24 +24408,24 @@
     <row r="40" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -24416,38 +24444,38 @@
       <c r="AK40" s="3"/>
     </row>
     <row r="41" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="19" t="s">
         <v>174</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22" t="s">
+      <c r="K41" s="23"/>
+      <c r="L41" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22" t="s">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -24466,26 +24494,26 @@
       <c r="AK41" s="3"/>
     </row>
     <row r="42" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -24504,14 +24532,14 @@
       <c r="AK42" s="3"/>
     </row>
     <row r="43" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="20">
+      <c r="C43" s="23"/>
+      <c r="D43" s="21">
         <v>45883</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="19" t="s">
         <v>153</v>
       </c>
@@ -24520,20 +24548,20 @@
         <v>7</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -24552,26 +24580,26 @@
       <c r="AK43" s="3"/>
     </row>
     <row r="44" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -24594,10 +24622,10 @@
         <v>164</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="19" t="s">
         <v>178</v>
       </c>
@@ -24606,20 +24634,20 @@
         <v>7</v>
       </c>
       <c r="I45" s="19"/>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -24640,24 +24668,24 @@
     <row r="46" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -24680,10 +24708,10 @@
         <v>160</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="19" t="s">
         <v>132</v>
       </c>
@@ -24692,18 +24720,18 @@
         <v>7</v>
       </c>
       <c r="I47" s="19"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -24724,24 +24752,24 @@
     <row r="48" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -24764,10 +24792,10 @@
         <v>166</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="19" t="s">
         <v>179</v>
       </c>
@@ -24776,18 +24804,18 @@
         <v>7</v>
       </c>
       <c r="I49" s="19"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
@@ -24808,24 +24836,24 @@
     <row r="50" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -24848,10 +24876,10 @@
         <v>18</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="19" t="s">
         <v>165</v>
       </c>
@@ -24860,18 +24888,18 @@
         <v>7</v>
       </c>
       <c r="I51" s="19"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -24892,24 +24920,24 @@
     <row r="52" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -24928,14 +24956,14 @@
       <c r="AK52" s="3"/>
     </row>
     <row r="53" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="20">
+      <c r="C53" s="23"/>
+      <c r="D53" s="21">
         <v>45883</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="19" t="s">
         <v>154</v>
       </c>
@@ -24944,24 +24972,24 @@
         <v>7</v>
       </c>
       <c r="I53" s="19"/>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22" t="s">
+      <c r="K53" s="22"/>
+      <c r="L53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="23" t="s">
+      <c r="M53" s="23"/>
+      <c r="N53" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -24980,26 +25008,26 @@
       <c r="AK53" s="3"/>
     </row>
     <row r="54" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -25022,10 +25050,10 @@
         <v>104</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="20"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="19" t="s">
         <v>167</v>
       </c>
@@ -25034,18 +25062,18 @@
         <v>7</v>
       </c>
       <c r="I55" s="19"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
@@ -25066,24 +25094,24 @@
     <row r="56" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -25106,10 +25134,10 @@
         <v>205</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="20"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="19" t="s">
         <v>206</v>
       </c>
@@ -25118,18 +25146,18 @@
         <v>7</v>
       </c>
       <c r="I57" s="19"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -25150,24 +25178,24 @@
     <row r="58" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
@@ -25190,10 +25218,10 @@
         <v>170</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="20"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="19" t="s">
         <v>180</v>
       </c>
@@ -25202,18 +25230,18 @@
         <v>7</v>
       </c>
       <c r="I59" s="19"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
@@ -25234,24 +25262,24 @@
     <row r="60" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
@@ -25274,10 +25302,10 @@
         <v>159</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="20"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="19" t="s">
         <v>168</v>
       </c>
@@ -25286,18 +25314,18 @@
         <v>7</v>
       </c>
       <c r="I61" s="19"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -25318,24 +25346,24 @@
     <row r="62" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -25354,36 +25382,36 @@
       <c r="AK62" s="3"/>
     </row>
     <row r="63" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="20">
+      <c r="C63" s="23"/>
+      <c r="D63" s="21">
         <v>45881</v>
       </c>
-      <c r="E63" s="20"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="19" t="s">
         <v>145</v>
       </c>
       <c r="G63" s="19"/>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22" t="s">
+      <c r="I63" s="23"/>
+      <c r="J63" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
@@ -25402,26 +25430,26 @@
       <c r="AK63" s="3"/>
     </row>
     <row r="64" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -25444,10 +25472,10 @@
         <v>103</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="20">
+      <c r="D65" s="21">
         <v>45882</v>
       </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="3" t="s">
         <v>148</v>
       </c>
@@ -25456,18 +25484,18 @@
         <v>7</v>
       </c>
       <c r="I65" s="19"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
@@ -25488,24 +25516,24 @@
     <row r="66" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
@@ -25528,10 +25556,10 @@
         <v>202</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="20"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="19" t="s">
         <v>204</v>
       </c>
@@ -25540,18 +25568,18 @@
         <v>7</v>
       </c>
       <c r="I69" s="19"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
@@ -25572,24 +25600,24 @@
     <row r="70" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -25612,10 +25640,10 @@
         <v>181</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E73" s="20"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="19" t="s">
         <v>182</v>
       </c>
@@ -25624,20 +25652,22 @@
         <v>7</v>
       </c>
       <c r="I73" s="19"/>
-      <c r="J73" s="21" t="s">
+      <c r="J73" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="K73" s="21"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -25658,24 +25688,24 @@
     <row r="74" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -25698,10 +25728,10 @@
         <v>171</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="20"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="19" t="s">
         <v>201</v>
       </c>
@@ -25710,18 +25740,18 @@
         <v>7</v>
       </c>
       <c r="I77" s="19"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
@@ -25742,24 +25772,24 @@
     <row r="78" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
@@ -25782,10 +25812,10 @@
         <v>14</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="20"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="19" t="s">
         <v>214</v>
       </c>
@@ -25794,18 +25824,18 @@
         <v>209</v>
       </c>
       <c r="I79" s="19"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="23"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="23"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
@@ -25826,24 +25856,24 @@
     <row r="80" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="24"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
@@ -25866,10 +25896,10 @@
         <v>175</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="20"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="19" t="s">
         <v>177</v>
       </c>
@@ -25878,18 +25908,18 @@
         <v>7</v>
       </c>
       <c r="I81" s="19"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
@@ -25910,24 +25940,24 @@
     <row r="82" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
@@ -25950,10 +25980,10 @@
         <v>184</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="20"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="19" t="s">
         <v>191</v>
       </c>
@@ -25962,18 +25992,18 @@
         <v>7</v>
       </c>
       <c r="I83" s="19"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
@@ -25994,24 +26024,24 @@
     <row r="84" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
@@ -26034,10 +26064,10 @@
         <v>185</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E85" s="20"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="13" t="s">
         <v>196</v>
       </c>
@@ -26046,18 +26076,18 @@
         <v>7</v>
       </c>
       <c r="I85" s="19"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="24"/>
+      <c r="U85" s="24"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
@@ -26078,24 +26108,24 @@
     <row r="86" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="23"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
@@ -26118,10 +26148,10 @@
         <v>186</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="13" t="s">
         <v>192</v>
       </c>
@@ -26162,8 +26192,8 @@
     <row r="88" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="19"/>
@@ -26198,14 +26228,14 @@
       <c r="AK88" s="3"/>
     </row>
     <row r="89" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="20" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E89" s="20"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="13" t="s">
         <v>195</v>
       </c>
@@ -26214,10 +26244,10 @@
         <v>7</v>
       </c>
       <c r="I89" s="19"/>
-      <c r="J89" s="22" t="s">
+      <c r="J89" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K89" s="22"/>
+      <c r="K89" s="23"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -26246,16 +26276,16 @@
       <c r="AK89" s="3"/>
     </row>
     <row r="90" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -26288,18 +26318,18 @@
         <v>198</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E91" s="20"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="13" t="s">
         <v>238</v>
       </c>
       <c r="G91" s="13"/>
-      <c r="H91" s="21" t="s">
+      <c r="H91" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I91" s="21"/>
+      <c r="I91" s="22"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -26332,12 +26362,12 @@
     <row r="92" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -26372,18 +26402,18 @@
         <v>188</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="20"/>
+      <c r="E93" s="21"/>
       <c r="F93" s="13" t="s">
         <v>189</v>
       </c>
       <c r="G93" s="13"/>
-      <c r="H93" s="21" t="s">
+      <c r="H93" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="I93" s="21"/>
+      <c r="I93" s="22"/>
       <c r="J93" s="19" t="s">
         <v>7</v>
       </c>
@@ -26420,12 +26450,12 @@
     <row r="94" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
       <c r="L94" s="19"/>
@@ -26460,10 +26490,10 @@
         <v>73</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="20"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="13" t="s">
         <v>73</v>
       </c>
@@ -26504,8 +26534,8 @@
     <row r="96" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="19"/>
@@ -26544,10 +26574,10 @@
         <v>101</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E97" s="20"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="13" t="s">
         <v>197</v>
       </c>
@@ -26588,8 +26618,8 @@
     <row r="98" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="19"/>
@@ -26624,14 +26654,14 @@
       <c r="AK98" s="3"/>
     </row>
     <row r="99" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="20" t="s">
+      <c r="C99" s="23"/>
+      <c r="D99" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="20"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="13" t="s">
         <v>193</v>
       </c>
@@ -26640,14 +26670,14 @@
         <v>7</v>
       </c>
       <c r="I99" s="19"/>
-      <c r="J99" s="21" t="s">
+      <c r="J99" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="K99" s="21"/>
-      <c r="L99" s="22" t="s">
+      <c r="K99" s="22"/>
+      <c r="L99" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M99" s="22"/>
+      <c r="M99" s="23"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -26674,18 +26704,18 @@
       <c r="AK99" s="3"/>
     </row>
     <row r="100" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -26716,10 +26746,10 @@
         <v>221</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E101" s="20"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="13" t="s">
         <v>239</v>
       </c>
@@ -26760,8 +26790,8 @@
     <row r="102" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="19"/>
@@ -26800,10 +26830,10 @@
         <v>73</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="20"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="19" t="s">
@@ -26842,8 +26872,8 @@
     <row r="104" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="19"/>
@@ -26878,24 +26908,24 @@
       <c r="AK104" s="3"/>
     </row>
     <row r="105" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="20" t="s">
+      <c r="C105" s="23"/>
+      <c r="D105" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="20"/>
+      <c r="E105" s="21"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22" t="s">
+      <c r="I105" s="23"/>
+      <c r="J105" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K105" s="22"/>
+      <c r="K105" s="23"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
@@ -26924,16 +26954,16 @@
       <c r="AK105" s="3"/>
     </row>
     <row r="106" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
@@ -26966,10 +26996,10 @@
         <v>210</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="20"/>
+      <c r="E107" s="21"/>
       <c r="F107" s="13" t="s">
         <v>240</v>
       </c>
@@ -27010,8 +27040,8 @@
     <row r="108" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="19"/>
@@ -27050,10 +27080,10 @@
         <v>211</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E109" s="20"/>
+      <c r="E109" s="21"/>
       <c r="F109" s="13" t="s">
         <v>214</v>
       </c>
@@ -27094,8 +27124,8 @@
     <row r="110" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="19"/>
@@ -27134,10 +27164,10 @@
         <v>212</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E111" s="20"/>
+      <c r="E111" s="21"/>
       <c r="F111" s="13" t="s">
         <v>213</v>
       </c>
@@ -27146,10 +27176,10 @@
         <v>7</v>
       </c>
       <c r="I111" s="19"/>
-      <c r="J111" s="21" t="s">
+      <c r="J111" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="K111" s="21"/>
+      <c r="K111" s="22"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -27180,14 +27210,14 @@
     <row r="112" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -27220,10 +27250,10 @@
         <v>215</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E113" s="20"/>
+      <c r="E113" s="21"/>
       <c r="F113" s="13" t="s">
         <v>216</v>
       </c>
@@ -27264,8 +27294,8 @@
     <row r="114" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
       <c r="H114" s="19"/>
@@ -27304,18 +27334,18 @@
         <v>217</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="20"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="13" t="s">
         <v>218</v>
       </c>
       <c r="G115" s="13"/>
-      <c r="H115" s="21" t="s">
+      <c r="H115" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I115" s="21"/>
+      <c r="I115" s="22"/>
       <c r="J115" s="19" t="s">
         <v>7</v>
       </c>
@@ -27350,12 +27380,12 @@
     <row r="116" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
       <c r="J116" s="19"/>
       <c r="K116" s="19"/>
       <c r="L116" s="3"/>
@@ -27390,10 +27420,10 @@
         <v>224</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E117" s="20"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="13" t="s">
         <v>226</v>
       </c>
@@ -27434,8 +27464,8 @@
     <row r="118" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
       <c r="H118" s="19"/>
@@ -27474,18 +27504,18 @@
         <v>227</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E119" s="20"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="13" t="s">
         <v>228</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="21" t="s">
+      <c r="H119" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I119" s="21"/>
+      <c r="I119" s="22"/>
       <c r="J119" s="19" t="s">
         <v>7</v>
       </c>
@@ -27520,12 +27550,12 @@
     <row r="120" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
       <c r="J120" s="19"/>
       <c r="K120" s="19"/>
       <c r="L120" s="3"/>
@@ -27560,10 +27590,10 @@
         <v>230</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E121" s="20"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="13" t="s">
         <v>241</v>
       </c>
@@ -27604,8 +27634,8 @@
     <row r="122" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="19"/>
@@ -27644,10 +27674,10 @@
         <v>231</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E123" s="20"/>
+      <c r="E123" s="21"/>
       <c r="F123" s="13" t="s">
         <v>242</v>
       </c>
@@ -27688,8 +27718,8 @@
     <row r="124" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="19"/>
@@ -27728,22 +27758,22 @@
         <v>232</v>
       </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E125" s="20"/>
+      <c r="E125" s="21"/>
       <c r="F125" s="13" t="s">
         <v>243</v>
       </c>
       <c r="G125" s="13"/>
-      <c r="H125" s="21" t="s">
+      <c r="H125" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21" t="s">
+      <c r="I125" s="22"/>
+      <c r="J125" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="K125" s="21"/>
+      <c r="K125" s="22"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -27774,14 +27804,14 @@
     <row r="126" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
@@ -27820,10 +27850,10 @@
       <c r="E127" s="19"/>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
-      <c r="H127" s="24" t="s">
+      <c r="H127" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I127" s="24"/>
+      <c r="I127" s="20"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -27860,8 +27890,8 @@
       <c r="E128" s="19"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -27902,10 +27932,10 @@
       <c r="E129" s="19"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I129" s="24"/>
+      <c r="I129" s="20"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -27942,8 +27972,8 @@
       <c r="E130" s="19"/>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -27978,10 +28008,10 @@
         <v>234</v>
       </c>
       <c r="C131" s="3"/>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E131" s="20"/>
+      <c r="E131" s="21"/>
       <c r="F131" s="13" t="s">
         <v>258</v>
       </c>
@@ -28022,8 +28052,8 @@
     <row r="132" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="19"/>
@@ -28068,10 +28098,10 @@
       <c r="E133" s="19"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I133" s="24"/>
+      <c r="I133" s="20"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -28108,8 +28138,8 @@
       <c r="E134" s="19"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -28150,10 +28180,10 @@
       <c r="E135" s="19"/>
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
-      <c r="H135" s="24" t="s">
+      <c r="H135" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I135" s="24"/>
+      <c r="I135" s="20"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -28190,8 +28220,8 @@
       <c r="E136" s="19"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -28232,10 +28262,10 @@
       <c r="E137" s="19"/>
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
-      <c r="H137" s="24" t="s">
+      <c r="H137" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I137" s="24"/>
+      <c r="I137" s="20"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -28272,8 +28302,8 @@
       <c r="E138" s="19"/>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -28308,10 +28338,10 @@
         <v>252</v>
       </c>
       <c r="C139" s="3"/>
-      <c r="D139" s="20" t="s">
+      <c r="D139" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E139" s="20"/>
+      <c r="E139" s="21"/>
       <c r="F139" s="13" t="s">
         <v>255</v>
       </c>
@@ -28352,8 +28382,8 @@
     <row r="140" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="3"/>
@@ -28398,8 +28428,10 @@
       <c r="E141" s="19"/>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
+      <c r="H141" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I141" s="20"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -28436,8 +28468,8 @@
       <c r="E142" s="19"/>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -28478,8 +28510,10 @@
       <c r="E143" s="19"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+      <c r="H143" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I143" s="20"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -28516,8 +28550,8 @@
       <c r="E144" s="19"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -28556,24 +28590,24 @@
         <v>169</v>
       </c>
       <c r="E145" s="19"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="24" t="s">
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I145" s="24"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="23"/>
-      <c r="M145" s="23"/>
-      <c r="N145" s="23"/>
-      <c r="O145" s="23"/>
-      <c r="P145" s="23"/>
-      <c r="Q145" s="23"/>
-      <c r="R145" s="23"/>
-      <c r="S145" s="23"/>
-      <c r="T145" s="23"/>
-      <c r="U145" s="23"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="24"/>
+      <c r="U145" s="24"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
@@ -28596,22 +28630,22 @@
       <c r="C146" s="3"/>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="23"/>
-      <c r="M146" s="23"/>
-      <c r="N146" s="23"/>
-      <c r="O146" s="23"/>
-      <c r="P146" s="23"/>
-      <c r="Q146" s="23"/>
-      <c r="R146" s="23"/>
-      <c r="S146" s="23"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="23"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
@@ -28636,24 +28670,24 @@
       <c r="C147" s="3"/>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="24" t="s">
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I147" s="24"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="23"/>
-      <c r="M147" s="23"/>
-      <c r="N147" s="23"/>
-      <c r="O147" s="23"/>
-      <c r="P147" s="23"/>
-      <c r="Q147" s="23"/>
-      <c r="R147" s="23"/>
-      <c r="S147" s="23"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="23"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="24"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="24"/>
+      <c r="Q147" s="24"/>
+      <c r="R147" s="24"/>
+      <c r="S147" s="24"/>
+      <c r="T147" s="24"/>
+      <c r="U147" s="24"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
@@ -28676,22 +28710,22 @@
       <c r="C148" s="3"/>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="23"/>
-      <c r="N148" s="23"/>
-      <c r="O148" s="23"/>
-      <c r="P148" s="23"/>
-      <c r="Q148" s="23"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="23"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="23"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
+      <c r="R148" s="24"/>
+      <c r="S148" s="24"/>
+      <c r="T148" s="24"/>
+      <c r="U148" s="24"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
@@ -28714,30 +28748,30 @@
         <v>147</v>
       </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="E149" s="20"/>
+      <c r="D149" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149" s="21"/>
       <c r="F149" s="19" t="s">
         <v>220</v>
       </c>
       <c r="G149" s="19"/>
-      <c r="H149" s="24" t="s">
+      <c r="H149" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I149" s="24"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="23"/>
-      <c r="M149" s="23"/>
-      <c r="N149" s="23"/>
-      <c r="O149" s="23"/>
-      <c r="P149" s="23"/>
-      <c r="Q149" s="23"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="23"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="23"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
+      <c r="R149" s="24"/>
+      <c r="S149" s="24"/>
+      <c r="T149" s="24"/>
+      <c r="U149" s="24"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
@@ -28758,24 +28792,24 @@
     <row r="150" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="23"/>
-      <c r="N150" s="23"/>
-      <c r="O150" s="23"/>
-      <c r="P150" s="23"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="23"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
+      <c r="R150" s="24"/>
+      <c r="S150" s="24"/>
+      <c r="T150" s="24"/>
+      <c r="U150" s="24"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
@@ -28794,16 +28828,20 @@
       <c r="AK150" s="3"/>
     </row>
     <row r="151" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C151" s="3"/>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E151" s="19"/>
+      <c r="E151" s="21"/>
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
+      <c r="H151" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I151" s="20"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -28836,12 +28874,12 @@
     <row r="152" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -28872,7 +28910,9 @@
       <c r="AK152" s="3"/>
     </row>
     <row r="153" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C153" s="3"/>
       <c r="D153" s="19" t="s">
         <v>73</v>
@@ -28880,8 +28920,10 @@
       <c r="E153" s="19"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+      <c r="H153" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I153" s="20"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -28918,8 +28960,8 @@
       <c r="E154" s="19"/>
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -28950,7 +28992,9 @@
       <c r="AK154" s="3"/>
     </row>
     <row r="155" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C155" s="3"/>
       <c r="D155" s="19" t="s">
         <v>73</v>
@@ -28958,8 +29002,10 @@
       <c r="E155" s="19"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+      <c r="H155" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I155" s="20"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -28996,8 +29042,8 @@
       <c r="E156" s="19"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -29028,7 +29074,9 @@
       <c r="AK156" s="3"/>
     </row>
     <row r="157" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="C157" s="3"/>
       <c r="D157" s="19" t="s">
         <v>73</v>
@@ -29036,8 +29084,10 @@
       <c r="E157" s="19"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
+      <c r="H157" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I157" s="20"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -29074,8 +29124,8 @@
       <c r="E158" s="19"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -29106,7 +29156,9 @@
       <c r="AK158" s="3"/>
     </row>
     <row r="159" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="C159" s="3"/>
       <c r="D159" s="19" t="s">
         <v>73</v>
@@ -29114,8 +29166,10 @@
       <c r="E159" s="19"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
+      <c r="H159" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I159" s="20"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -29152,8 +29206,8 @@
       <c r="E160" s="19"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -29184,7 +29238,9 @@
       <c r="AK160" s="3"/>
     </row>
     <row r="161" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="3"/>
+      <c r="B161" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="D161" s="19" t="s">
         <v>73</v>
@@ -29192,8 +29248,10 @@
       <c r="E161" s="19"/>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
+      <c r="H161" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I161" s="20"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -29230,8 +29288,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -40504,6 +40562,16 @@
     <mergeCell ref="V69:W70"/>
     <mergeCell ref="X69:Y70"/>
     <mergeCell ref="D69:E70"/>
+    <mergeCell ref="V77:W78"/>
+    <mergeCell ref="X77:Y78"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="D79:E80"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="L79:M80"/>
+    <mergeCell ref="Z81:AA82"/>
+    <mergeCell ref="AB81:AC82"/>
     <mergeCell ref="F147:G148"/>
     <mergeCell ref="H147:I148"/>
     <mergeCell ref="J147:K148"/>
@@ -40536,8 +40604,6 @@
     <mergeCell ref="P77:Q78"/>
     <mergeCell ref="R77:S78"/>
     <mergeCell ref="T77:U78"/>
-    <mergeCell ref="V77:W78"/>
-    <mergeCell ref="X77:Y78"/>
     <mergeCell ref="B45:C46"/>
     <mergeCell ref="D77:E78"/>
     <mergeCell ref="F77:G78"/>
@@ -40570,14 +40636,6 @@
     <mergeCell ref="T79:U80"/>
     <mergeCell ref="V79:W80"/>
     <mergeCell ref="X79:Y80"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="D79:E80"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="J79:K80"/>
-    <mergeCell ref="L79:M80"/>
-    <mergeCell ref="Z81:AA82"/>
-    <mergeCell ref="AB81:AC82"/>
     <mergeCell ref="AD81:AE82"/>
     <mergeCell ref="AF81:AG82"/>
     <mergeCell ref="AH81:AI82"/>
